--- a/myproject/myapp/static/excel/events.xlsx
+++ b/myproject/myapp/static/excel/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlad\myproject\myapp\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1436222-15A0-4B74-8D8C-04EE4E399DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32095250-B989-4BCF-9EE1-7F0B3A71C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12684" yWindow="2808" windowWidth="10272" windowHeight="9264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Время</t>
   </si>
@@ -54,76 +54,19 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.00 - 14.00 (crossfit)</t>
-  </si>
-  <si>
-    <t>10.00 - 15.00 (crossfit)</t>
-  </si>
-  <si>
-    <t>10.00 - 13.00 (lunge)</t>
-  </si>
-  <si>
-    <t>10.00 - 13.30 (lunge)</t>
-  </si>
-  <si>
     <t>14.00</t>
   </si>
   <si>
-    <t>14.00 - 17.00 (lunge)</t>
-  </si>
-  <si>
-    <t>14.00 - 17.00 (crossfit)</t>
-  </si>
-  <si>
-    <t>14.00 - 15.30 (walls)</t>
-  </si>
-  <si>
     <t>16.00</t>
   </si>
   <si>
-    <t>16.00 - 18.00 (lunge)</t>
-  </si>
-  <si>
-    <t>16.00 - 19.00 (candy)</t>
-  </si>
-  <si>
-    <t>16.00 - 17.00 (ppsr)</t>
-  </si>
-  <si>
-    <t>16.00 - 20.00 (murph)</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
-    <t>18.00 - 20.00 (walls)</t>
-  </si>
-  <si>
-    <t>18.00 - 20.00 (ppsr)</t>
-  </si>
-  <si>
-    <t>18.00 - 22.00 (chelsea)</t>
-  </si>
-  <si>
-    <t>18.00 - 22.00 (annie)</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
-    <t>21.00 - 23.00 (lunge)</t>
-  </si>
-  <si>
-    <t>20.00 - 22.00 (walls)</t>
-  </si>
-  <si>
-    <t>20.30 - 23.00 (walls)</t>
-  </si>
-  <si>
-    <t>22.00 - 23.00 (crossfit)</t>
-  </si>
-  <si>
-    <t>21.00 - 23.00 (crossfit)</t>
+    <t>Скоро</t>
   </si>
 </sst>
 </file>
@@ -231,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -243,6 +186,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,7 +474,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,107 +505,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="H6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/myproject/myapp/static/excel/events.xlsx
+++ b/myproject/myapp/static/excel/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vlad\myproject\myapp\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32095250-B989-4BCF-9EE1-7F0B3A71C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AA602A-C6A9-4F5D-B7F0-4A131925021A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12684" yWindow="2808" windowWidth="10272" windowHeight="9264" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>Скоро</t>
+    <t>Скоро Очень</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J7" sqref="J6:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
